--- a/Table5-simulatedTornado.xlsx
+++ b/Table5-simulatedTornado.xlsx
@@ -1,25 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29702985-3FF0-4CC6-9C8E-2BBE372E172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Figure!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Figure!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Figure!$D$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Figure!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Figure!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Figure!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Figure!$C$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Figure!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Figure!$D$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Figure!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Figure!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Figure!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Figure!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Figure!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Figure!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Figure!$D$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Figure!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Figure!$C$2:$C$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Figure!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Figure!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Figure!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Figure!$B$2:$B$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Figure!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Figure!$C$2:$C$51</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Worst-case Tornado</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>$0M</t>
+  </si>
+  <si>
+    <t>$15M</t>
+  </si>
+  <si>
+    <t>$30M</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +143,777 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BFF04C53-EC15-496D-B5CD-D4D42AD18437}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>$0M</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{05068CA0-08D9-4367-A9FA-82228E5186D9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>$15M</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CEE7A2EB-82A6-447E-AF29-4B9A13A85ECA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>$30M</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Budget</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Budget</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Population Dislocation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Population Dislocation</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EBBD58-F0B9-3E02-86BE-4D0DA31FA898}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3368675" y="342900"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1178,673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>16318</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10976.32</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16318</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3038.8935120533592</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>13408</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10019.24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13401</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1995</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2561.5910021703307</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>13091</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9773.48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12991</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1881</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2477.3143542150642</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B44D71-D804-4E36-ABEA-A2CF53A72947}">
+  <dimension ref="B1:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>13088</v>
+      </c>
+      <c r="C2">
+        <v>12300</v>
+      </c>
+      <c r="D2">
+        <v>12093</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>8996</v>
+      </c>
+      <c r="C3">
+        <v>8310</v>
+      </c>
+      <c r="D3">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>10115</v>
+      </c>
+      <c r="C4">
+        <v>9181</v>
+      </c>
+      <c r="D4">
+        <v>8941</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>4276</v>
+      </c>
+      <c r="C5">
+        <v>4276</v>
+      </c>
+      <c r="D5">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>11382</v>
+      </c>
+      <c r="C6">
+        <v>10559</v>
+      </c>
+      <c r="D6">
+        <v>10199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>8874</v>
+      </c>
+      <c r="C7">
+        <v>8118</v>
+      </c>
+      <c r="D7">
+        <v>7943</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>13643</v>
+      </c>
+      <c r="C8">
+        <v>12318</v>
+      </c>
+      <c r="D8">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>13439</v>
+      </c>
+      <c r="C9">
+        <v>12586</v>
+      </c>
+      <c r="D9">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>14488</v>
+      </c>
+      <c r="C10">
+        <v>12166</v>
+      </c>
+      <c r="D10">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>11862</v>
+      </c>
+      <c r="C11">
+        <v>10828</v>
+      </c>
+      <c r="D11">
+        <v>10555</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>14349</v>
+      </c>
+      <c r="C12">
+        <v>12158</v>
+      </c>
+      <c r="D12">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>11159</v>
+      </c>
+      <c r="C13">
+        <v>10250</v>
+      </c>
+      <c r="D13">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>14488</v>
+      </c>
+      <c r="C14">
+        <v>12166</v>
+      </c>
+      <c r="D14">
+        <v>11783</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>7813</v>
+      </c>
+      <c r="C15">
+        <v>7813</v>
+      </c>
+      <c r="D15">
+        <v>7813</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>8107</v>
+      </c>
+      <c r="C16">
+        <v>7198</v>
+      </c>
+      <c r="D16">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>5419</v>
+      </c>
+      <c r="C17">
+        <v>5244</v>
+      </c>
+      <c r="D17">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>5774</v>
+      </c>
+      <c r="C18">
+        <v>5774</v>
+      </c>
+      <c r="D18">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>14393</v>
+      </c>
+      <c r="C19">
+        <v>12022</v>
+      </c>
+      <c r="D19">
+        <v>11634</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>11382</v>
+      </c>
+      <c r="C20">
+        <v>10472</v>
+      </c>
+      <c r="D20">
+        <v>10199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>16318</v>
+      </c>
+      <c r="C21">
+        <v>13401</v>
+      </c>
+      <c r="D21">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>13368</v>
+      </c>
+      <c r="C22">
+        <v>12432</v>
+      </c>
+      <c r="D22">
+        <v>12143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>10599</v>
+      </c>
+      <c r="C23">
+        <v>10124</v>
+      </c>
+      <c r="D23">
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>10171</v>
+      </c>
+      <c r="C24">
+        <v>9422</v>
+      </c>
+      <c r="D24">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>12839</v>
+      </c>
+      <c r="C25">
+        <v>12300</v>
+      </c>
+      <c r="D25">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>12184</v>
+      </c>
+      <c r="C26">
+        <v>10935</v>
+      </c>
+      <c r="D26">
+        <v>10672</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1995</v>
+      </c>
+      <c r="C27">
+        <v>1995</v>
+      </c>
+      <c r="D27">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>11025</v>
+      </c>
+      <c r="C28">
+        <v>10178</v>
+      </c>
+      <c r="D28">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>14393</v>
+      </c>
+      <c r="C29">
+        <v>12022</v>
+      </c>
+      <c r="D29">
+        <v>11634</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>13090</v>
+      </c>
+      <c r="C30">
+        <v>12551</v>
+      </c>
+      <c r="D30">
+        <v>12262</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>4713</v>
+      </c>
+      <c r="C31">
+        <v>4713</v>
+      </c>
+      <c r="D31">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>13302</v>
+      </c>
+      <c r="C32">
+        <v>12823</v>
+      </c>
+      <c r="D32">
+        <v>12584</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>8107</v>
+      </c>
+      <c r="C33">
+        <v>7198</v>
+      </c>
+      <c r="D33">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>10963</v>
+      </c>
+      <c r="C34">
+        <v>9246</v>
+      </c>
+      <c r="D34">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>10840</v>
+      </c>
+      <c r="C35">
+        <v>10131</v>
+      </c>
+      <c r="D35">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>11846</v>
+      </c>
+      <c r="C36">
+        <v>10684</v>
+      </c>
+      <c r="D36">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>12473</v>
+      </c>
+      <c r="C37">
+        <v>11879</v>
+      </c>
+      <c r="D37">
+        <v>11706</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>12947</v>
+      </c>
+      <c r="C38">
+        <v>12222</v>
+      </c>
+      <c r="D38">
+        <v>11915</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>14632</v>
+      </c>
+      <c r="C39">
+        <v>12460</v>
+      </c>
+      <c r="D39">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>9841</v>
+      </c>
+      <c r="C40">
+        <v>9670</v>
+      </c>
+      <c r="D40">
+        <v>9491</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>13285</v>
+      </c>
+      <c r="C41">
+        <v>11243</v>
+      </c>
+      <c r="D41">
+        <v>10926</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>7352</v>
+      </c>
+      <c r="C42">
+        <v>7352</v>
+      </c>
+      <c r="D42">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>12396</v>
+      </c>
+      <c r="C43">
+        <v>11261</v>
+      </c>
+      <c r="D43">
+        <v>11083</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>12562</v>
+      </c>
+      <c r="C44">
+        <v>11542</v>
+      </c>
+      <c r="D44">
+        <v>11192</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>13882</v>
+      </c>
+      <c r="C45">
+        <v>13186</v>
+      </c>
+      <c r="D45">
+        <v>12946</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>9788</v>
+      </c>
+      <c r="C46">
+        <v>8903</v>
+      </c>
+      <c r="D46">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>6852</v>
+      </c>
+      <c r="C47">
+        <v>6641</v>
+      </c>
+      <c r="D47">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>10485</v>
+      </c>
+      <c r="C48">
+        <v>9035</v>
+      </c>
+      <c r="D48">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>9901</v>
+      </c>
+      <c r="C49">
+        <v>9524</v>
+      </c>
+      <c r="D49">
+        <v>9347</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>12595</v>
+      </c>
+      <c r="C50">
+        <v>11972</v>
+      </c>
+      <c r="D50">
+        <v>11683</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>11025</v>
+      </c>
+      <c r="C51">
+        <v>10178</v>
+      </c>
+      <c r="D51">
+        <v>9939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>